--- a/public/excel/format_import_siswa_new.xlsx
+++ b/public/excel/format_import_siswa_new.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\my_tahfidz\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A391A18A-B8C3-4612-A237-E05B65290D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F551E-880D-4CEB-A3B8-AD4BDDB731AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CD4F6695-E1C8-4262-928D-10F003E42B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
   <si>
     <t>nisn_siswa</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>YANG BERWARNA MERAH TIDAK BOLEH DI HAPUS</t>
+  </si>
+  <si>
+    <t>orangtua_siswa</t>
   </si>
 </sst>
 </file>
@@ -205,9 +208,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,6 +222,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53FC779-C8EB-41EC-8EBA-5FD7CC28BDB0}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,12 +559,13 @@
     <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,17 +590,20 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>123234</v>
       </c>
@@ -621,15 +628,15 @@
       <c r="H2">
         <v>2024</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>123236</v>
       </c>
@@ -654,17 +661,17 @@
       <c r="H3">
         <v>2025</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>123238</v>
       </c>
@@ -689,13 +696,13 @@
       <c r="H4">
         <v>2026</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>123240</v>
       </c>
@@ -721,7 +728,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>123242</v>
       </c>
@@ -747,7 +754,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>123244</v>
       </c>
@@ -773,7 +780,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>123246</v>
       </c>
@@ -799,7 +806,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>123248</v>
       </c>
@@ -825,7 +832,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>123250</v>
       </c>
@@ -851,7 +858,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>123252</v>
       </c>
@@ -877,7 +884,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>123254</v>
       </c>
@@ -903,7 +910,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>123256</v>
       </c>
@@ -929,7 +936,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>123258</v>
       </c>
@@ -957,8 +964,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{D4343509-6B6E-4FB9-B653-227F284FE6A9}"/>
